--- a/datasets/LA School districts/LAschooldistricts_9_29_23.xlsx
+++ b/datasets/LA School districts/LAschooldistricts_9_29_23.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Hackmann\Documents\GitHub\obesitydata\datasets\LA School districts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B95A02F-C7B8-431E-8CEB-CBDCF7D02525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="664">
   <si>
     <t>District</t>
   </si>
@@ -2994,12 +2993,15 @@
   </si>
   <si>
     <t>bsilvers@wiseburn.org</t>
+  </si>
+  <si>
+    <t>first email response Sep 25th, full response expected by Oct 9th</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3787,29 +3789,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="12" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS23" sqref="AS23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.75" customWidth="1"/>
     <col min="14" max="14" width="62" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="62" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="45.7" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3895,7 +3897,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="44.15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -3962,7 +3964,7 @@
       </c>
       <c r="AB2" s="41"/>
     </row>
-    <row r="3" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -4014,7 +4016,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -4054,7 +4056,7 @@
       <c r="AA4" s="39"/>
       <c r="AB4" s="39"/>
     </row>
-    <row r="5" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="44.15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -4119,7 +4121,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
@@ -4165,7 +4167,7 @@
       <c r="AA6" s="39"/>
       <c r="AB6" s="39"/>
     </row>
-    <row r="7" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -4203,7 +4205,7 @@
       <c r="AA7" s="39"/>
       <c r="AB7" s="39"/>
     </row>
-    <row r="8" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="44.15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -4316,7 +4318,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
@@ -4354,7 +4356,7 @@
       <c r="AA10" s="39"/>
       <c r="AB10" s="39"/>
     </row>
-    <row r="11" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="44.15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -4463,7 +4465,7 @@
       <c r="AA12" s="39"/>
       <c r="AB12" s="39"/>
     </row>
-    <row r="13" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
@@ -4501,7 +4503,7 @@
       <c r="AA13" s="39"/>
       <c r="AB13" s="39"/>
     </row>
-    <row r="14" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="53" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
@@ -4619,7 +4621,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>5</v>
       </c>
@@ -4661,7 +4663,7 @@
       <c r="AA16" s="39"/>
       <c r="AB16" s="39"/>
     </row>
-    <row r="17" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="44.15" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
@@ -4772,7 +4774,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>5</v>
       </c>
@@ -4808,7 +4810,7 @@
       <c r="AA19" s="39"/>
       <c r="AB19" s="39"/>
     </row>
-    <row r="20" spans="1:28" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="53" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
@@ -4870,7 +4872,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
@@ -4910,7 +4912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>5</v>
       </c>
@@ -4942,7 +4944,7 @@
       </c>
       <c r="X22" s="12"/>
     </row>
-    <row r="23" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="35.35" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
@@ -5004,7 +5006,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
@@ -5050,7 +5052,7 @@
       <c r="AA24" s="39"/>
       <c r="AB24" s="39"/>
     </row>
-    <row r="25" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>5</v>
       </c>
@@ -5088,7 +5090,7 @@
       <c r="AA25" s="39"/>
       <c r="AB25" s="39"/>
     </row>
-    <row r="26" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="44.15" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>53</v>
       </c>
@@ -5198,7 +5200,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>5</v>
       </c>
@@ -5236,7 +5238,7 @@
       <c r="AA28" s="39"/>
       <c r="AB28" s="39"/>
     </row>
-    <row r="29" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="44.15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
@@ -5301,7 +5303,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>60</v>
       </c>
@@ -5347,7 +5349,7 @@
       <c r="AA30" s="39"/>
       <c r="AB30" s="39"/>
     </row>
-    <row r="31" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>5</v>
       </c>
@@ -5385,7 +5387,7 @@
       <c r="AA31" s="39"/>
       <c r="AB31" s="39"/>
     </row>
-    <row r="32" spans="1:28" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="61.85" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
@@ -5445,7 +5447,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>66</v>
       </c>
@@ -5495,7 +5497,7 @@
       <c r="AA33" s="39"/>
       <c r="AB33" s="39"/>
     </row>
-    <row r="34" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>5</v>
       </c>
@@ -5533,7 +5535,7 @@
       <c r="AA34" s="39"/>
       <c r="AB34" s="39"/>
     </row>
-    <row r="35" spans="1:28" ht="81" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="70.650000000000006" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>71</v>
       </c>
@@ -5595,7 +5597,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>72</v>
       </c>
@@ -5641,7 +5643,7 @@
       <c r="AA36" s="39"/>
       <c r="AB36" s="39"/>
     </row>
-    <row r="37" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>5</v>
       </c>
@@ -5679,7 +5681,7 @@
       <c r="AA37" s="39"/>
       <c r="AB37" s="39"/>
     </row>
-    <row r="38" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="44.15" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>77</v>
       </c>
@@ -5741,7 +5743,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>78</v>
       </c>
@@ -5787,7 +5789,7 @@
       <c r="AA39" s="39"/>
       <c r="AB39" s="39"/>
     </row>
-    <row r="40" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>5</v>
       </c>
@@ -5825,7 +5827,7 @@
       <c r="AA40" s="39"/>
       <c r="AB40" s="39"/>
     </row>
-    <row r="41" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="44.15" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>83</v>
       </c>
@@ -5883,7 +5885,7 @@
       </c>
       <c r="AB41" s="41"/>
     </row>
-    <row r="42" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>84</v>
       </c>
@@ -5937,7 +5939,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>5</v>
       </c>
@@ -5975,7 +5977,7 @@
       <c r="AA43" s="39"/>
       <c r="AB43" s="39"/>
     </row>
-    <row r="44" spans="1:28" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="53" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>89</v>
       </c>
@@ -6037,7 +6039,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>90</v>
       </c>
@@ -6083,7 +6085,7 @@
       <c r="AA45" s="39"/>
       <c r="AB45" s="39"/>
     </row>
-    <row r="46" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>5</v>
       </c>
@@ -6121,7 +6123,7 @@
       <c r="AA46" s="39"/>
       <c r="AB46" s="39"/>
     </row>
-    <row r="47" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="53" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>95</v>
       </c>
@@ -6181,7 +6183,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>96</v>
       </c>
@@ -6229,7 +6231,7 @@
       <c r="AA48" s="39"/>
       <c r="AB48" s="39"/>
     </row>
-    <row r="49" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>5</v>
       </c>
@@ -6267,7 +6269,7 @@
       <c r="AA49" s="39"/>
       <c r="AB49" s="39"/>
     </row>
-    <row r="50" spans="1:28" ht="63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="53" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>101</v>
       </c>
@@ -6329,7 +6331,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>102</v>
       </c>
@@ -6375,7 +6377,7 @@
       <c r="AA51" s="39"/>
       <c r="AB51" s="39"/>
     </row>
-    <row r="52" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>5</v>
       </c>
@@ -6413,7 +6415,7 @@
       <c r="AA52" s="39"/>
       <c r="AB52" s="39"/>
     </row>
-    <row r="53" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="53" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>107</v>
       </c>
@@ -6527,7 +6529,7 @@
       <c r="AA54" s="39"/>
       <c r="AB54" s="46"/>
     </row>
-    <row r="55" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>5</v>
       </c>
@@ -6565,7 +6567,7 @@
       <c r="AA55" s="39"/>
       <c r="AB55" s="46"/>
     </row>
-    <row r="56" spans="1:28" ht="63" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="53" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>113</v>
       </c>
@@ -6685,7 +6687,7 @@
       <c r="AA57" s="39"/>
       <c r="AB57" s="46"/>
     </row>
-    <row r="58" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>5</v>
       </c>
@@ -6731,7 +6733,7 @@
       <c r="AA58" s="39"/>
       <c r="AB58" s="47"/>
     </row>
-    <row r="59" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="53" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>119</v>
       </c>
@@ -6791,7 +6793,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>120</v>
       </c>
@@ -6835,7 +6837,7 @@
       <c r="AA60" s="39"/>
       <c r="AB60" s="39"/>
     </row>
-    <row r="61" spans="1:28" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" ht="60.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>5</v>
       </c>
@@ -6871,19 +6873,19 @@
       <c r="AA61" s="39"/>
       <c r="AB61" s="39"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="14.95" x14ac:dyDescent="0.25">
       <c r="T62" s="39"/>
       <c r="U62" s="39"/>
       <c r="AA62" s="39"/>
       <c r="AB62" s="39"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="14.95" x14ac:dyDescent="0.25">
       <c r="T63" s="39"/>
       <c r="U63" s="39"/>
       <c r="AA63" s="39"/>
       <c r="AB63" s="39"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="14.95" x14ac:dyDescent="0.25">
       <c r="T64" s="39"/>
       <c r="U64" s="39"/>
       <c r="AA64" s="39"/>
@@ -6939,6 +6941,9 @@
       <c r="I73" s="24" t="s">
         <v>496</v>
       </c>
+      <c r="L73" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="74" spans="8:13" x14ac:dyDescent="0.25">
       <c r="I74" s="24" t="s">
@@ -6950,278 +6955,278 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="http://www.abcusd.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=1&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=1&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A6" r:id="rId4" display="http://www.aadusd.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=2&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=2&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A9" r:id="rId7" display="http://www.ausd.us/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=3&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=3&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A12" r:id="rId10" display="http://www.avdistrict.org/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A13" r:id="rId11" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=4&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=4&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A15" r:id="rId13" display="http://www.ausd.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A16" r:id="rId14" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=5&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=5&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A18" r:id="rId16" display="http://www.azusa.org/" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A19" r:id="rId17" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=6&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C18" r:id="rId18" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=6&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A21" r:id="rId19" display="http://www.bpusd.net/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A22" r:id="rId20" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=7&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C21" r:id="rId21" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=7&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A24" r:id="rId22" display="http://www.bassettusd.org/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A25" r:id="rId23" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=8&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C24" r:id="rId24" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=8&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A27" r:id="rId25" display="http://www.busd.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A28" r:id="rId26" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=9&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C27" r:id="rId27" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=9&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A30" r:id="rId28" display="http://www.bhusd.org/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A31" r:id="rId29" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=10&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C30" r:id="rId30" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=10&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A33" r:id="rId31" display="http://www.bonita.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A34" r:id="rId32" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=11&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C33" r:id="rId33" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=11&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A36" r:id="rId34" display="http://www.burbankusd.org/" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A37" r:id="rId35" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=12&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C36" r:id="rId36" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=12&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A39" r:id="rId37" display="http://www.castaicusd.com/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A40" r:id="rId38" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=13&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C39" r:id="rId39" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=13&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A42" r:id="rId40" display="http://www.centinela.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A43" r:id="rId41" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=14&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C42" r:id="rId42" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=14&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A45" r:id="rId43" display="http://www.cousd.net/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A46" r:id="rId44" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=15&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C45" r:id="rId45" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=15&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A48" r:id="rId46" display="http://www.cusd.claremont.edu/" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A49" r:id="rId47" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=16&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C48" r:id="rId48" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=16&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A51" r:id="rId49" display="http://www.compton.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A52" r:id="rId50" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=17&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C51" r:id="rId51" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=17&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A54" r:id="rId52" display="http://www.c-vusd.org/" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A55" r:id="rId53" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=18&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C54" r:id="rId54" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=18&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A57" r:id="rId55" display="http://www.ccusd.org/" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="A58" r:id="rId56" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=19&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C57" r:id="rId57" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=19&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="A60" r:id="rId58" display="http://www.dusd.net/" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="A61" r:id="rId59" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=20&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C60" r:id="rId60" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=20&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="H3" r:id="rId61" display="http://www.duarteusd.org/" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H4" r:id="rId62" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=21&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="J3" r:id="rId63" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=21&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="H6" r:id="rId64" display="http://www.ewcsd.org/" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="H7" r:id="rId65" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=22&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J6" r:id="rId66" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=22&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="H9" r:id="rId67" display="http://www.eastsideusd.org/" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="H10" r:id="rId68" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=23&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J9" r:id="rId69" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=23&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="H12" r:id="rId70" display="http://www.emcsd.org/" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="H13" r:id="rId71" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=24&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="J12" r:id="rId72" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=24&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="H15" r:id="rId73" display="http://emuhsd.org/" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H16" r:id="rId74" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=25&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J15" r:id="rId75" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=25&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="H18" r:id="rId76" display="http://www.erusd.org/" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="H19" r:id="rId77" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=26&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="J18" r:id="rId78" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=26&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="H21" r:id="rId79" display="http://www.elsegundousd.net/" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="H22" r:id="rId80" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=27&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J21" r:id="rId81" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=27&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="H24" r:id="rId82" display="http://www.garvey.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="H25" r:id="rId83" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=28&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="J24" r:id="rId84" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=28&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="H27" r:id="rId85" display="http://www.gusd.net/" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="H28" r:id="rId86" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=29&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J27" r:id="rId87" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=29&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="H30" r:id="rId88" display="http://www.glendora.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="H31" r:id="rId89" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=30&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J30" r:id="rId90" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=30&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="H33" r:id="rId91" display="http://gorman.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="H34" r:id="rId92" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=31&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J33" r:id="rId93" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=31&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="H36" r:id="rId94" display="http://www.hlpschools.org/" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="H37" r:id="rId95" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=32&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="J36" r:id="rId96" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=32&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="H39" r:id="rId97" display="http://www.hawthorne.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="H40" r:id="rId98" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=33&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J39" r:id="rId99" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=33&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="H42" r:id="rId100" display="http://www.hbcsd.org/" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="H43" r:id="rId101" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=34&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J42" r:id="rId102" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=34&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="H45" r:id="rId103" display="http://www.heluesd-k12-pt.schoolloop.com/" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="H46" r:id="rId104" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=35&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="J45" r:id="rId105" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=35&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="H49" r:id="rId106" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=36&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="J48" r:id="rId107" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=36&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="H51" r:id="rId108" display="http://www.keppelunion.org/" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="H52" r:id="rId109" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=37&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="J51" r:id="rId110" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=37&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="H54" r:id="rId111" display="http://www.lcusd.net/" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="H55" r:id="rId112" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=38&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="J54" r:id="rId113" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=38&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="H57" r:id="rId114" display="http://www.lancsd.org/" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="H58" r:id="rId115" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=39&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="J57" r:id="rId116" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=39&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="H60" r:id="rId117" display="http://www.lvusd.org/" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H61" r:id="rId118" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=40&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="J60" r:id="rId119" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=40&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="O3" r:id="rId120" display="http://www.lawndalesd.net/" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="O4" r:id="rId121" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=41&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="Q3" r:id="rId122" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=41&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="O6" r:id="rId123" display="http://www.lennox.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="O7" r:id="rId124" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=42&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="Q6" r:id="rId125" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=42&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="O9" r:id="rId126" display="http://www.llcsd.net/" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="O10" r:id="rId127" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=43&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="Q9" r:id="rId128" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=43&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="O12" r:id="rId129" display="http://www.lbschools.net/" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="O13" r:id="rId130" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=44&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="Q12" r:id="rId131" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=44&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="O15" r:id="rId132" display="http://www.lausd.net/" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="O16" r:id="rId133" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=45&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="Q15" r:id="rId134" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=45&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="O18" r:id="rId135" display="http://www.losnietos.lnsd.net/" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="O19" r:id="rId136" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=46&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="Q18" r:id="rId137" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=46&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="O21" r:id="rId138" display="http://www.ljsd.org/" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="O22" r:id="rId139" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=47&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="Q21" r:id="rId140" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=47&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="O24" r:id="rId141" display="http://www.lynwood.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="O25" r:id="rId142" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=48&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="Q24" r:id="rId143" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=48&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="O27" r:id="rId144" display="http://www.mbusd.org/" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="O28" r:id="rId145" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=49&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="Q27" r:id="rId146" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=49&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="O30" r:id="rId147" display="http://www.monroviaschools.net/" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="O31" r:id="rId148" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=50&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="Q30" r:id="rId149" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=50&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="O33" r:id="rId150" display="http://www.montebello.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="O34" r:id="rId151" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=51&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="Q33" r:id="rId152" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=51&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="O36" r:id="rId153" display="http://www.mtviewschools.com/" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="O37" r:id="rId154" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=52&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="Q36" r:id="rId155" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=52&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="O39" r:id="rId156" display="http://www.newhallschooldistrict.com/" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="O40" r:id="rId157" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=53&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="Q39" r:id="rId158" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=53&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="O42" r:id="rId159" display="http://https/www.nlmusd.org/" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="O43" r:id="rId160" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=54&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="Q42" r:id="rId161" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=54&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="O45" r:id="rId162" display="http://www.palmdalesd.org/" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="O46" r:id="rId163" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=55&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="Q45" r:id="rId164" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=55&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="O48" r:id="rId165" display="http://www.pvpusd.net/" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="O49" r:id="rId166" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=56&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="Q48" r:id="rId167" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=56&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="O51" r:id="rId168" display="http://www.paramount.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="O52" r:id="rId169" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=57&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="Q51" r:id="rId170" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=57&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="O54" r:id="rId171" display="http://www.pusd.us/" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="O55" r:id="rId172" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=58&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="Q54" r:id="rId173" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=58&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="O57" r:id="rId174" display="http://www.pusd.org/" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="O58" r:id="rId175" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=59&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="Q57" r:id="rId176" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=59&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="O60" r:id="rId177" display="http://www.rbusd.org/" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="O61" r:id="rId178" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=60&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="Q60" r:id="rId179" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=60&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="V3" r:id="rId180" display="http://www.rosemead.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="V4" r:id="rId181" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=61&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="X3" r:id="rId182" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=61&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="V6" r:id="rId183" display="http://www.rowlandschools.org/" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="V7" r:id="rId184" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=62&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="X6" r:id="rId185" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=62&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="V9" r:id="rId186" display="http://www.sgusd.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="V10" r:id="rId187" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=63&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="X9" r:id="rId188" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=63&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="V12" r:id="rId189" display="http://www.smusd.us/" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="V13" r:id="rId190" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=64&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="X12" r:id="rId191" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=64&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="V15" r:id="rId192" display="http://www.smmusd.org/" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="V16" r:id="rId193" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=65&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="X15" r:id="rId194" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=65&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="V18" r:id="rId195" display="http://www.saugususd.org/" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="V19" r:id="rId196" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=66&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="X18" r:id="rId197" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=66&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="V21" r:id="rId198" display="http://www.spusd.net/" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="V22" r:id="rId199" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=67&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="X21" r:id="rId200" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=67&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="V24" r:id="rId201" display="http://www.swhittier.net/" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="V25" r:id="rId202" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=68&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="X24" r:id="rId203" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=68&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="V27" r:id="rId204" display="http://www.sssd.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="V28" r:id="rId205" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=69&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="X27" r:id="rId206" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=69&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="V30" r:id="rId207" display="http://www.tcusd.net/" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="V31" r:id="rId208" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=70&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="X30" r:id="rId209" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=70&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="V33" r:id="rId210" display="http://www.tusd.org/" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="V34" r:id="rId211" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=71&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="X33" r:id="rId212" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=71&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="V36" r:id="rId213" display="http://www.vallelindo.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="V37" r:id="rId214" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=72&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="X36" r:id="rId215" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=72&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="V39" r:id="rId216" display="http://www.wvusd.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="V40" r:id="rId217" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=73&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="X39" r:id="rId218" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=73&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="V42" r:id="rId219" display="http://www.wcusd.org/" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="V43" r:id="rId220" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=74&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="X42" r:id="rId221" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=74&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="V45" r:id="rId222" display="http://www.westside.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="V46" r:id="rId223" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=75&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="X45" r:id="rId224" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=75&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="V48" r:id="rId225" display="http://www.whittiercity.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="V49" r:id="rId226" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=76&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="X48" r:id="rId227" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=76&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="V51" r:id="rId228" display="http://www.wuhsd.org/" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="V52" r:id="rId229" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=77&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="X51" r:id="rId230" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=77&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="V54" r:id="rId231" display="http://www.hartdistrict.org/" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="V55" r:id="rId232" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=78&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="X54" r:id="rId233" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=78&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="V58" r:id="rId234" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=79&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="X57" r:id="rId235" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=79&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="V60" r:id="rId236" display="http://www.wiseburn.k12.ca.us/" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="V61" r:id="rId237" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=80&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="X60" r:id="rId238" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=80&amp;pageid=0&amp;mid=2" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="F56" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="AA14" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="F17" r:id="rId241" display="mailto:ausdcommunications@azusa.org" xr:uid="{C1294C61-B0C8-466D-9167-B3AC9C4C3519}"/>
-    <hyperlink ref="F23" r:id="rId242" xr:uid="{9A961C2D-20B3-45C7-A898-27E292F50177}"/>
-    <hyperlink ref="F20" r:id="rId243" xr:uid="{15CF4F17-9449-4F58-8B04-5358E251F216}"/>
-    <hyperlink ref="F29" r:id="rId244" xr:uid="{73E19EAA-EDF2-4145-B3E8-449A1550DCC5}"/>
-    <hyperlink ref="F38" r:id="rId245" xr:uid="{DA151E72-FBF0-4B0A-AA08-046659AD7580}"/>
-    <hyperlink ref="F41" r:id="rId246" xr:uid="{B4DBAEC9-6992-4FF2-9833-E1185C1B8623}"/>
-    <hyperlink ref="N14" r:id="rId247" xr:uid="{88D0519C-DAD2-48ED-87EB-774702FA516C}"/>
-    <hyperlink ref="N26" r:id="rId248" xr:uid="{0B5D2796-A451-436C-8A75-48965825C5B4}"/>
-    <hyperlink ref="N29" r:id="rId249" xr:uid="{EFD068F9-4573-4B22-A760-9E17B4647F7D}"/>
-    <hyperlink ref="N47" r:id="rId250" xr:uid="{BA3B7BE4-A764-4903-BF39-F27BCBBFE7C6}"/>
-    <hyperlink ref="N53" r:id="rId251" xr:uid="{4F98681F-0DC0-4392-8978-DEFBB048117F}"/>
-    <hyperlink ref="N56" r:id="rId252" xr:uid="{92DDFDC3-227A-4E99-B495-05AB931BD4AA}"/>
-    <hyperlink ref="T32" r:id="rId253" xr:uid="{80AA49BD-176E-40FC-89AA-E8BA23979E28}"/>
-    <hyperlink ref="T41" r:id="rId254" xr:uid="{2B292642-D7D0-4C29-8B85-C9F130696E96}"/>
-    <hyperlink ref="T47" r:id="rId255" xr:uid="{56624407-9D7D-47E5-8C92-4AF092A63959}"/>
-    <hyperlink ref="T56" r:id="rId256" xr:uid="{E24CA646-F18D-4C03-BA01-104D937837B1}"/>
-    <hyperlink ref="AA2" r:id="rId257" xr:uid="{9F5F6CE7-8267-4261-B1DA-385F84696132}"/>
-    <hyperlink ref="AA8" r:id="rId258" location=":~:text=Pursuant%20to%20Government%20Code%20Sections,here%20to%20submit%20a%20request." xr:uid="{9F1B2AD8-80F4-48C3-8A83-FB7550D19D0F}"/>
-    <hyperlink ref="AA17" r:id="rId259" xr:uid="{8DC82F89-1900-4634-9648-6C791902EF47}"/>
-    <hyperlink ref="AA26" r:id="rId260" xr:uid="{B85A045D-361F-43C9-B437-2529385A578A}"/>
-    <hyperlink ref="AA41" r:id="rId261" xr:uid="{DB2CE5FF-E67F-4263-A70B-33FA3AFC482D}"/>
-    <hyperlink ref="G17" r:id="rId262" display="mailto:ausdcommunications@azusa.org" xr:uid="{ADF84A66-4F91-4784-BB9A-B8537CD83340}"/>
-    <hyperlink ref="G23" r:id="rId263" xr:uid="{65A4B175-944B-4932-8DBA-AB280BA9F649}"/>
-    <hyperlink ref="G20" r:id="rId264" xr:uid="{6E80A429-47F4-44D3-A4C7-8E81723331B6}"/>
-    <hyperlink ref="G29" r:id="rId265" xr:uid="{EC633C3F-E397-4A25-B34C-EAB3A86ED260}"/>
-    <hyperlink ref="G38" r:id="rId266" xr:uid="{534A0F8B-F2C3-45F7-97D1-26B243932CDE}"/>
-    <hyperlink ref="G41" r:id="rId267" xr:uid="{1FDFDBC4-DEAA-4696-8569-E0B1B9207EDF}"/>
-    <hyperlink ref="N38" r:id="rId268" xr:uid="{D0C4DFEE-C3F6-4EAA-9892-0C712C725A5F}"/>
-    <hyperlink ref="U20" r:id="rId269" display="javascript:ccms_O('2390&amp;825&amp;1200&amp;1271&amp;231&amp;3737&amp;593&amp;1579&amp;3398&amp;3737&amp;3737&amp;2390&amp;1566&amp;3174&amp;1981&amp;1271&amp;1579&amp;3174&amp;3627&amp;414&amp;3737&amp;1632&amp;465', 3749, 713)" xr:uid="{ABAC8D4A-3100-4E25-8197-84E7EA7ED662}"/>
-    <hyperlink ref="U23" r:id="rId270" display="mailto:gcrosthwaite@mylusd.org" xr:uid="{4CF32E94-792D-4EE0-81E2-056549921F6C}"/>
-    <hyperlink ref="U53" r:id="rId271" xr:uid="{751B858B-9A4F-483B-B5D5-B727A59EEC8C}"/>
-    <hyperlink ref="V57" r:id="rId272" display="http://www.wilsonasd.net/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="A3" r:id="rId1" display="http://www.abcusd.k12.ca.us/"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=1&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C3" r:id="rId3" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=1&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A6" r:id="rId4" display="http://www.aadusd.k12.ca.us/"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=2&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C6" r:id="rId6" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=2&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A9" r:id="rId7" display="http://www.ausd.us/"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=3&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C9" r:id="rId9" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=3&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A12" r:id="rId10" display="http://www.avdistrict.org/"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=4&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C12" r:id="rId12" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=4&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A15" r:id="rId13" display="http://www.ausd.k12.ca.us/"/>
+    <hyperlink ref="A16" r:id="rId14" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=5&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C15" r:id="rId15" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=5&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A18" r:id="rId16" display="http://www.azusa.org/"/>
+    <hyperlink ref="A19" r:id="rId17" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=6&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C18" r:id="rId18" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=6&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A21" r:id="rId19" display="http://www.bpusd.net/"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=7&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C21" r:id="rId21" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=7&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A24" r:id="rId22" display="http://www.bassettusd.org/"/>
+    <hyperlink ref="A25" r:id="rId23" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=8&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C24" r:id="rId24" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=8&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A27" r:id="rId25" display="http://www.busd.k12.ca.us/"/>
+    <hyperlink ref="A28" r:id="rId26" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=9&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C27" r:id="rId27" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=9&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A30" r:id="rId28" display="http://www.bhusd.org/"/>
+    <hyperlink ref="A31" r:id="rId29" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=10&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C30" r:id="rId30" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=10&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A33" r:id="rId31" display="http://www.bonita.k12.ca.us/"/>
+    <hyperlink ref="A34" r:id="rId32" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=11&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C33" r:id="rId33" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=11&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A36" r:id="rId34" display="http://www.burbankusd.org/"/>
+    <hyperlink ref="A37" r:id="rId35" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=12&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C36" r:id="rId36" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=12&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A39" r:id="rId37" display="http://www.castaicusd.com/"/>
+    <hyperlink ref="A40" r:id="rId38" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=13&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C39" r:id="rId39" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=13&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A42" r:id="rId40" display="http://www.centinela.k12.ca.us/"/>
+    <hyperlink ref="A43" r:id="rId41" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=14&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C42" r:id="rId42" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=14&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A45" r:id="rId43" display="http://www.cousd.net/"/>
+    <hyperlink ref="A46" r:id="rId44" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=15&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C45" r:id="rId45" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=15&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A48" r:id="rId46" display="http://www.cusd.claremont.edu/"/>
+    <hyperlink ref="A49" r:id="rId47" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=16&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C48" r:id="rId48" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=16&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A51" r:id="rId49" display="http://www.compton.k12.ca.us/"/>
+    <hyperlink ref="A52" r:id="rId50" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=17&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C51" r:id="rId51" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=17&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A54" r:id="rId52" display="http://www.c-vusd.org/"/>
+    <hyperlink ref="A55" r:id="rId53" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=18&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C54" r:id="rId54" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=18&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A57" r:id="rId55" display="http://www.ccusd.org/"/>
+    <hyperlink ref="A58" r:id="rId56" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=19&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C57" r:id="rId57" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=19&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="A60" r:id="rId58" display="http://www.dusd.net/"/>
+    <hyperlink ref="A61" r:id="rId59" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=20&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="C60" r:id="rId60" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=20&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H3" r:id="rId61" display="http://www.duarteusd.org/"/>
+    <hyperlink ref="H4" r:id="rId62" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=21&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J3" r:id="rId63" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=21&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H6" r:id="rId64" display="http://www.ewcsd.org/"/>
+    <hyperlink ref="H7" r:id="rId65" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=22&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J6" r:id="rId66" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=22&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H9" r:id="rId67" display="http://www.eastsideusd.org/"/>
+    <hyperlink ref="H10" r:id="rId68" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=23&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J9" r:id="rId69" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=23&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H12" r:id="rId70" display="http://www.emcsd.org/"/>
+    <hyperlink ref="H13" r:id="rId71" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=24&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J12" r:id="rId72" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=24&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H15" r:id="rId73" display="http://emuhsd.org/"/>
+    <hyperlink ref="H16" r:id="rId74" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=25&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J15" r:id="rId75" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=25&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H18" r:id="rId76" display="http://www.erusd.org/"/>
+    <hyperlink ref="H19" r:id="rId77" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=26&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J18" r:id="rId78" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=26&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H21" r:id="rId79" display="http://www.elsegundousd.net/"/>
+    <hyperlink ref="H22" r:id="rId80" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=27&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J21" r:id="rId81" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=27&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H24" r:id="rId82" display="http://www.garvey.k12.ca.us/"/>
+    <hyperlink ref="H25" r:id="rId83" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=28&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J24" r:id="rId84" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=28&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H27" r:id="rId85" display="http://www.gusd.net/"/>
+    <hyperlink ref="H28" r:id="rId86" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=29&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J27" r:id="rId87" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=29&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H30" r:id="rId88" display="http://www.glendora.k12.ca.us/"/>
+    <hyperlink ref="H31" r:id="rId89" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=30&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J30" r:id="rId90" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=30&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H33" r:id="rId91" display="http://gorman.k12.ca.us/"/>
+    <hyperlink ref="H34" r:id="rId92" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=31&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J33" r:id="rId93" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=31&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H36" r:id="rId94" display="http://www.hlpschools.org/"/>
+    <hyperlink ref="H37" r:id="rId95" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=32&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J36" r:id="rId96" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=32&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H39" r:id="rId97" display="http://www.hawthorne.k12.ca.us/"/>
+    <hyperlink ref="H40" r:id="rId98" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=33&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J39" r:id="rId99" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=33&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H42" r:id="rId100" display="http://www.hbcsd.org/"/>
+    <hyperlink ref="H43" r:id="rId101" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=34&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J42" r:id="rId102" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=34&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H45" r:id="rId103" display="http://www.heluesd-k12-pt.schoolloop.com/"/>
+    <hyperlink ref="H46" r:id="rId104" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=35&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J45" r:id="rId105" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=35&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H49" r:id="rId106" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=36&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J48" r:id="rId107" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=36&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H51" r:id="rId108" display="http://www.keppelunion.org/"/>
+    <hyperlink ref="H52" r:id="rId109" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=37&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J51" r:id="rId110" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=37&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H54" r:id="rId111" display="http://www.lcusd.net/"/>
+    <hyperlink ref="H55" r:id="rId112" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=38&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J54" r:id="rId113" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=38&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H57" r:id="rId114" display="http://www.lancsd.org/"/>
+    <hyperlink ref="H58" r:id="rId115" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=39&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J57" r:id="rId116" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=39&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="H60" r:id="rId117" display="http://www.lvusd.org/"/>
+    <hyperlink ref="H61" r:id="rId118" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=40&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="J60" r:id="rId119" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=40&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O3" r:id="rId120" display="http://www.lawndalesd.net/"/>
+    <hyperlink ref="O4" r:id="rId121" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=41&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q3" r:id="rId122" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=41&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O6" r:id="rId123" display="http://www.lennox.k12.ca.us/"/>
+    <hyperlink ref="O7" r:id="rId124" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=42&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q6" r:id="rId125" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=42&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O9" r:id="rId126" display="http://www.llcsd.net/"/>
+    <hyperlink ref="O10" r:id="rId127" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=43&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q9" r:id="rId128" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=43&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O12" r:id="rId129" display="http://www.lbschools.net/"/>
+    <hyperlink ref="O13" r:id="rId130" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=44&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q12" r:id="rId131" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=44&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O15" r:id="rId132" display="http://www.lausd.net/"/>
+    <hyperlink ref="O16" r:id="rId133" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=45&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q15" r:id="rId134" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=45&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O18" r:id="rId135" display="http://www.losnietos.lnsd.net/"/>
+    <hyperlink ref="O19" r:id="rId136" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=46&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q18" r:id="rId137" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=46&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O21" r:id="rId138" display="http://www.ljsd.org/"/>
+    <hyperlink ref="O22" r:id="rId139" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=47&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q21" r:id="rId140" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=47&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O24" r:id="rId141" display="http://www.lynwood.k12.ca.us/"/>
+    <hyperlink ref="O25" r:id="rId142" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=48&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q24" r:id="rId143" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=48&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O27" r:id="rId144" display="http://www.mbusd.org/"/>
+    <hyperlink ref="O28" r:id="rId145" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=49&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q27" r:id="rId146" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=49&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O30" r:id="rId147" display="http://www.monroviaschools.net/"/>
+    <hyperlink ref="O31" r:id="rId148" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=50&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q30" r:id="rId149" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=50&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O33" r:id="rId150" display="http://www.montebello.k12.ca.us/"/>
+    <hyperlink ref="O34" r:id="rId151" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=51&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q33" r:id="rId152" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=51&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O36" r:id="rId153" display="http://www.mtviewschools.com/"/>
+    <hyperlink ref="O37" r:id="rId154" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=52&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q36" r:id="rId155" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=52&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O39" r:id="rId156" display="http://www.newhallschooldistrict.com/"/>
+    <hyperlink ref="O40" r:id="rId157" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=53&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q39" r:id="rId158" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=53&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O42" r:id="rId159" display="http://https/www.nlmusd.org/"/>
+    <hyperlink ref="O43" r:id="rId160" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=54&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q42" r:id="rId161" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=54&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O45" r:id="rId162" display="http://www.palmdalesd.org/"/>
+    <hyperlink ref="O46" r:id="rId163" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=55&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q45" r:id="rId164" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=55&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O48" r:id="rId165" display="http://www.pvpusd.net/"/>
+    <hyperlink ref="O49" r:id="rId166" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=56&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q48" r:id="rId167" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=56&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O51" r:id="rId168" display="http://www.paramount.k12.ca.us/"/>
+    <hyperlink ref="O52" r:id="rId169" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=57&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q51" r:id="rId170" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=57&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O54" r:id="rId171" display="http://www.pusd.us/"/>
+    <hyperlink ref="O55" r:id="rId172" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=58&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q54" r:id="rId173" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=58&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O57" r:id="rId174" display="http://www.pusd.org/"/>
+    <hyperlink ref="O58" r:id="rId175" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=59&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q57" r:id="rId176" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=59&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="O60" r:id="rId177" display="http://www.rbusd.org/"/>
+    <hyperlink ref="O61" r:id="rId178" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=60&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="Q60" r:id="rId179" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=60&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V3" r:id="rId180" display="http://www.rosemead.k12.ca.us/"/>
+    <hyperlink ref="V4" r:id="rId181" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=61&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X3" r:id="rId182" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=61&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V6" r:id="rId183" display="http://www.rowlandschools.org/"/>
+    <hyperlink ref="V7" r:id="rId184" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=62&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X6" r:id="rId185" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=62&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V9" r:id="rId186" display="http://www.sgusd.k12.ca.us/"/>
+    <hyperlink ref="V10" r:id="rId187" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=63&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X9" r:id="rId188" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=63&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V12" r:id="rId189" display="http://www.smusd.us/"/>
+    <hyperlink ref="V13" r:id="rId190" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=64&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X12" r:id="rId191" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=64&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V15" r:id="rId192" display="http://www.smmusd.org/"/>
+    <hyperlink ref="V16" r:id="rId193" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=65&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X15" r:id="rId194" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=65&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V18" r:id="rId195" display="http://www.saugususd.org/"/>
+    <hyperlink ref="V19" r:id="rId196" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=66&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X18" r:id="rId197" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=66&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V21" r:id="rId198" display="http://www.spusd.net/"/>
+    <hyperlink ref="V22" r:id="rId199" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=67&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X21" r:id="rId200" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=67&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V24" r:id="rId201" display="http://www.swhittier.net/"/>
+    <hyperlink ref="V25" r:id="rId202" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=68&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X24" r:id="rId203" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=68&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V27" r:id="rId204" display="http://www.sssd.k12.ca.us/"/>
+    <hyperlink ref="V28" r:id="rId205" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=69&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X27" r:id="rId206" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=69&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V30" r:id="rId207" display="http://www.tcusd.net/"/>
+    <hyperlink ref="V31" r:id="rId208" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=70&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X30" r:id="rId209" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=70&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V33" r:id="rId210" display="http://www.tusd.org/"/>
+    <hyperlink ref="V34" r:id="rId211" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=71&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X33" r:id="rId212" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=71&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V36" r:id="rId213" display="http://www.vallelindo.k12.ca.us/"/>
+    <hyperlink ref="V37" r:id="rId214" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=72&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X36" r:id="rId215" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=72&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V39" r:id="rId216" display="http://www.wvusd.k12.ca.us/"/>
+    <hyperlink ref="V40" r:id="rId217" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=73&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X39" r:id="rId218" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=73&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V42" r:id="rId219" display="http://www.wcusd.org/"/>
+    <hyperlink ref="V43" r:id="rId220" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=74&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X42" r:id="rId221" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=74&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V45" r:id="rId222" display="http://www.westside.k12.ca.us/"/>
+    <hyperlink ref="V46" r:id="rId223" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=75&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X45" r:id="rId224" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=75&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V48" r:id="rId225" display="http://www.whittiercity.k12.ca.us/"/>
+    <hyperlink ref="V49" r:id="rId226" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=76&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X48" r:id="rId227" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=76&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V51" r:id="rId228" display="http://www.wuhsd.org/"/>
+    <hyperlink ref="V52" r:id="rId229" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=77&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X51" r:id="rId230" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=77&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V54" r:id="rId231" display="http://www.hartdistrict.org/"/>
+    <hyperlink ref="V55" r:id="rId232" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=78&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X54" r:id="rId233" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=78&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V58" r:id="rId234" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=79&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X57" r:id="rId235" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=79&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="V60" r:id="rId236" display="http://www.wiseburn.k12.ca.us/"/>
+    <hyperlink ref="V61" r:id="rId237" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schools.aspx?dsid=80&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="X60" r:id="rId238" display="https://schooldirectory.lacoe.edu/SchoolDirectory/lacoe_schooldistrictdetails.aspx?dtype=Traditional&amp;dsid=80&amp;pageid=0&amp;mid=2"/>
+    <hyperlink ref="F56" r:id="rId239"/>
+    <hyperlink ref="AA14" r:id="rId240"/>
+    <hyperlink ref="F17" r:id="rId241" display="mailto:ausdcommunications@azusa.org"/>
+    <hyperlink ref="F23" r:id="rId242"/>
+    <hyperlink ref="F20" r:id="rId243"/>
+    <hyperlink ref="F29" r:id="rId244"/>
+    <hyperlink ref="F38" r:id="rId245"/>
+    <hyperlink ref="F41" r:id="rId246"/>
+    <hyperlink ref="N14" r:id="rId247"/>
+    <hyperlink ref="N26" r:id="rId248"/>
+    <hyperlink ref="N29" r:id="rId249"/>
+    <hyperlink ref="N47" r:id="rId250"/>
+    <hyperlink ref="N53" r:id="rId251"/>
+    <hyperlink ref="N56" r:id="rId252"/>
+    <hyperlink ref="T32" r:id="rId253"/>
+    <hyperlink ref="T41" r:id="rId254"/>
+    <hyperlink ref="T47" r:id="rId255"/>
+    <hyperlink ref="T56" r:id="rId256"/>
+    <hyperlink ref="AA2" r:id="rId257"/>
+    <hyperlink ref="AA8" r:id="rId258" location=":~:text=Pursuant%20to%20Government%20Code%20Sections,here%20to%20submit%20a%20request."/>
+    <hyperlink ref="AA17" r:id="rId259"/>
+    <hyperlink ref="AA26" r:id="rId260"/>
+    <hyperlink ref="AA41" r:id="rId261"/>
+    <hyperlink ref="G17" r:id="rId262" display="mailto:ausdcommunications@azusa.org"/>
+    <hyperlink ref="G23" r:id="rId263"/>
+    <hyperlink ref="G20" r:id="rId264"/>
+    <hyperlink ref="G29" r:id="rId265"/>
+    <hyperlink ref="G38" r:id="rId266"/>
+    <hyperlink ref="G41" r:id="rId267"/>
+    <hyperlink ref="N38" r:id="rId268"/>
+    <hyperlink ref="U20" r:id="rId269" display="javascript:ccms_O('2390&amp;825&amp;1200&amp;1271&amp;231&amp;3737&amp;593&amp;1579&amp;3398&amp;3737&amp;3737&amp;2390&amp;1566&amp;3174&amp;1981&amp;1271&amp;1579&amp;3174&amp;3627&amp;414&amp;3737&amp;1632&amp;465', 3749, 713)"/>
+    <hyperlink ref="U23" r:id="rId270" display="mailto:gcrosthwaite@mylusd.org"/>
+    <hyperlink ref="U53" r:id="rId271"/>
+    <hyperlink ref="V57" r:id="rId272" display="http://www.wilsonasd.net/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId273"/>
